--- a/test/Interp.xlsx
+++ b/test/Interp.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27809"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0122172s\Documents\GitHub\CPP\BladeBuilder\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JYD/Documents/Git/CPP/BladeBuilder/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E540181-F89E-4C80-A2B8-1D67AC86B8CF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19065" windowHeight="5130" xr2:uid="{F62CD38F-1AFB-4B64-87ED-F1AA3521DC95}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19060" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,7 +80,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -89,6 +94,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -158,82 +164,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -245,298 +251,90 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8414709848078965</c:v>
+                  <c:v>0.841470984807896</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90929742682568171</c:v>
+                  <c:v>0.909297426825682</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14112000805986721</c:v>
+                  <c:v>0.141120008059867</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.7568024953079282</c:v>
+                  <c:v>-0.756802495307928</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.95892427466313845</c:v>
+                  <c:v>-0.958924274663138</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.27941549819892586</c:v>
+                  <c:v>-0.279415498198926</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.65698659871878906</c:v>
+                  <c:v>0.656986598718789</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.98935824662338179</c:v>
+                  <c:v>0.989358246623382</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.41211848524175659</c:v>
+                  <c:v>0.412118485241757</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.54402111088936977</c:v>
+                  <c:v>-0.54402111088937</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.99999020655070348</c:v>
+                  <c:v>-0.999990206550703</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.53657291800043494</c:v>
+                  <c:v>-0.536572918000435</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.42016703682664092</c:v>
+                  <c:v>0.420167036826641</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.99060735569487035</c:v>
+                  <c:v>0.99060735569487</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.65028784015711683</c:v>
+                  <c:v>0.650287840157117</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.2879033166650653</c:v>
+                  <c:v>-0.287903316665065</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.96139749187955681</c:v>
+                  <c:v>-0.961397491879557</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.75098724677167605</c:v>
+                  <c:v>-0.750987246771676</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.14987720966295234</c:v>
+                  <c:v>0.149877209662952</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.91294525072762767</c:v>
+                  <c:v>0.912945250727628</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.83665563853605607</c:v>
+                  <c:v>0.836655638536056</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-8.8513092904038762E-3</c:v>
+                  <c:v>-0.00885130929040387</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.84622040417517064</c:v>
+                  <c:v>-0.846220404175171</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.90557836200662389</c:v>
+                  <c:v>-0.905578362006624</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.13235175009777303</c:v>
+                  <c:v>-0.132351750097773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C831-44BB-A91D-6395C0B23865}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.54030230586813977</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.41614683654714241</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.98999249660044542</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.65364362086361194</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.28366218546322625</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.96017028665036597</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7539022543433046</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.14550003380861354</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.91113026188467694</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.83907152907645244</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.4256979880507854E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.84385395873249214</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.90744678145019619</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.13673721820783361</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.75968791285882131</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.95765948032338466</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.27516333805159693</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.66031670824408017</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.98870461818666922</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.40808206181339196</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.54772926022426838</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.99996082639463713</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.53283302033339752</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.42417900733699698</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.99120281186347359</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C831-44BB-A91D-6395C0B23865}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -548,11 +346,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381164136"/>
-        <c:axId val="381165120"/>
+        <c:axId val="1288960272"/>
+        <c:axId val="1239165648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381164136"/>
+        <c:axId val="1288960272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -609,12 +407,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381165120"/>
+        <c:crossAx val="1239165648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381165120"/>
+        <c:axId val="1239165648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -671,7 +469,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381164136"/>
+        <c:crossAx val="1288960272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -685,14 +483,460 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54030230586814</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.416146836547142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.989992496600445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.653643620863612</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.283662185463226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.960170286650366</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.753902254343305</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.145500033808614</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.911130261884677</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.839071529076452</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.00442569798805078</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.843853958732492</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.907446781450196</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.136737218207834</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.759687912858821</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.957659480323385</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.275163338051597</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.66031670824408</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.988704618186669</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.408082061813392</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.547729260224268</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.999960826394637</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.532833020333398</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.424179007336997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.991202811863474</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C831-44BB-A91D-6395C0B23865}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1289360432"/>
+        <c:axId val="1289362480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1289360432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1289362480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1289362480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1289360432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -767,7 +1011,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1288,14 +2088,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1303,7 +2103,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48EB77AE-7FA8-423F-9346-CA104EEBF2A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48EB77AE-7FA8-423F-9346-CA104EEBF2A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1316,6 +2116,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48EB77AE-7FA8-423F-9346-CA104EEBF2A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1620,21 +2458,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB4E374-8958-4FA7-91E2-E80CA699CA3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1647,353 +2485,353 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>A2+$B$1</f>
+        <f t="shared" ref="A3:A27" si="0">A2+$B$1</f>
         <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B27" si="0">SIN(A3)</f>
+        <f t="shared" ref="B3:B27" si="1">SIN(A3)</f>
         <v>0.8414709848078965</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C27" si="1">COS(A3)</f>
+        <f t="shared" ref="C3:C27" si="2">COS(A3)</f>
         <v>0.54030230586813977</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f>A3+$B$1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4">
+        <f t="shared" si="1"/>
+        <v>0.90929742682568171</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="2"/>
+        <v>-0.41614683654714241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
         <f t="shared" si="0"/>
-        <v>0.90929742682568171</v>
-      </c>
-      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <f t="shared" si="1"/>
-        <v>-0.41614683654714241</v>
+        <v>0.14112000805986721</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>-0.98999249660044542</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f>A4+$B$1</f>
-        <v>3</v>
-      </c>
-      <c r="B5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
         <f t="shared" si="0"/>
-        <v>0.14112000805986721</v>
-      </c>
-      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <f t="shared" si="1"/>
-        <v>-0.98999249660044542</v>
+        <v>-0.7568024953079282</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>-0.65364362086361194</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f>A5+$B$1</f>
-        <v>4</v>
-      </c>
-      <c r="B6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
         <f t="shared" si="0"/>
-        <v>-0.7568024953079282</v>
-      </c>
-      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <f t="shared" si="1"/>
-        <v>-0.65364362086361194</v>
+        <v>-0.95892427466313845</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>0.28366218546322625</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f>A6+$B$1</f>
-        <v>5</v>
-      </c>
-      <c r="B7">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
         <f t="shared" si="0"/>
-        <v>-0.95892427466313845</v>
-      </c>
-      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <f t="shared" si="1"/>
-        <v>0.28366218546322625</v>
+        <v>-0.27941549819892586</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>0.96017028665036597</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f>A7+$B$1</f>
-        <v>6</v>
-      </c>
-      <c r="B8">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
         <f t="shared" si="0"/>
-        <v>-0.27941549819892586</v>
-      </c>
-      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <f t="shared" si="1"/>
-        <v>0.96017028665036597</v>
+        <v>0.65698659871878906</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>0.7539022543433046</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f>A8+$B$1</f>
-        <v>7</v>
-      </c>
-      <c r="B9">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
         <f t="shared" si="0"/>
-        <v>0.65698659871878906</v>
-      </c>
-      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <f t="shared" si="1"/>
-        <v>0.7539022543433046</v>
+        <v>0.98935824662338179</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>-0.14550003380861354</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f>A9+$B$1</f>
-        <v>8</v>
-      </c>
-      <c r="B10">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
         <f t="shared" si="0"/>
-        <v>0.98935824662338179</v>
-      </c>
-      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <f t="shared" si="1"/>
-        <v>-0.14550003380861354</v>
+        <v>0.41211848524175659</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>-0.91113026188467694</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f>A10+$B$1</f>
-        <v>9</v>
-      </c>
-      <c r="B11">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
         <f t="shared" si="0"/>
-        <v>0.41211848524175659</v>
-      </c>
-      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <f t="shared" si="1"/>
-        <v>-0.91113026188467694</v>
+        <v>-0.54402111088936977</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>-0.83907152907645244</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f>A11+$B$1</f>
-        <v>10</v>
-      </c>
-      <c r="B12">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
         <f t="shared" si="0"/>
-        <v>-0.54402111088936977</v>
-      </c>
-      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="B13">
         <f t="shared" si="1"/>
-        <v>-0.83907152907645244</v>
+        <v>-0.99999020655070348</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>4.4256979880507854E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f>A12+$B$1</f>
-        <v>11</v>
-      </c>
-      <c r="B13">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
         <f t="shared" si="0"/>
-        <v>-0.99999020655070348</v>
-      </c>
-      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <f t="shared" si="1"/>
-        <v>4.4256979880507854E-3</v>
+        <v>-0.53657291800043494</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>0.84385395873249214</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f>A13+$B$1</f>
-        <v>12</v>
-      </c>
-      <c r="B14">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
         <f t="shared" si="0"/>
-        <v>-0.53657291800043494</v>
-      </c>
-      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="B15">
         <f t="shared" si="1"/>
-        <v>0.84385395873249214</v>
+        <v>0.42016703682664092</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>0.90744678145019619</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f>A14+$B$1</f>
-        <v>13</v>
-      </c>
-      <c r="B15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
         <f t="shared" si="0"/>
-        <v>0.42016703682664092</v>
-      </c>
-      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="B16">
         <f t="shared" si="1"/>
-        <v>0.90744678145019619</v>
+        <v>0.99060735569487035</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>0.13673721820783361</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f>A15+$B$1</f>
-        <v>14</v>
-      </c>
-      <c r="B16">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
         <f t="shared" si="0"/>
-        <v>0.99060735569487035</v>
-      </c>
-      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="B17">
         <f t="shared" si="1"/>
-        <v>0.13673721820783361</v>
+        <v>0.65028784015711683</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>-0.75968791285882131</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f>A16+$B$1</f>
-        <v>15</v>
-      </c>
-      <c r="B17">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
         <f t="shared" si="0"/>
-        <v>0.65028784015711683</v>
-      </c>
-      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="B18">
         <f t="shared" si="1"/>
-        <v>-0.75968791285882131</v>
+        <v>-0.2879033166650653</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>-0.95765948032338466</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f>A17+$B$1</f>
-        <v>16</v>
-      </c>
-      <c r="B18">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
         <f t="shared" si="0"/>
-        <v>-0.2879033166650653</v>
-      </c>
-      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="B19">
         <f t="shared" si="1"/>
-        <v>-0.95765948032338466</v>
+        <v>-0.96139749187955681</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>-0.27516333805159693</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f>A18+$B$1</f>
-        <v>17</v>
-      </c>
-      <c r="B19">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
         <f t="shared" si="0"/>
-        <v>-0.96139749187955681</v>
-      </c>
-      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="B20">
         <f t="shared" si="1"/>
-        <v>-0.27516333805159693</v>
+        <v>-0.75098724677167605</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>0.66031670824408017</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f>A19+$B$1</f>
-        <v>18</v>
-      </c>
-      <c r="B20">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
         <f t="shared" si="0"/>
-        <v>-0.75098724677167605</v>
-      </c>
-      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="B21">
         <f t="shared" si="1"/>
-        <v>0.66031670824408017</v>
+        <v>0.14987720966295234</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>0.98870461818666922</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f>A20+$B$1</f>
-        <v>19</v>
-      </c>
-      <c r="B21">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
         <f t="shared" si="0"/>
-        <v>0.14987720966295234</v>
-      </c>
-      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="B22">
         <f t="shared" si="1"/>
-        <v>0.98870461818666922</v>
+        <v>0.91294525072762767</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>0.40808206181339196</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f>A21+$B$1</f>
-        <v>20</v>
-      </c>
-      <c r="B22">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
         <f t="shared" si="0"/>
-        <v>0.91294525072762767</v>
-      </c>
-      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="B23">
         <f t="shared" si="1"/>
-        <v>0.40808206181339196</v>
+        <v>0.83665563853605607</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>-0.54772926022426838</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f>A22+$B$1</f>
-        <v>21</v>
-      </c>
-      <c r="B23">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
         <f t="shared" si="0"/>
-        <v>0.83665563853605607</v>
-      </c>
-      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="B24">
         <f t="shared" si="1"/>
-        <v>-0.54772926022426838</v>
+        <v>-8.8513092904038762E-3</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>-0.99996082639463713</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f>A23+$B$1</f>
-        <v>22</v>
-      </c>
-      <c r="B24">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
         <f t="shared" si="0"/>
-        <v>-8.8513092904038762E-3</v>
-      </c>
-      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="B25">
         <f t="shared" si="1"/>
-        <v>-0.99996082639463713</v>
+        <v>-0.84622040417517064</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>-0.53283302033339752</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f>A24+$B$1</f>
-        <v>23</v>
-      </c>
-      <c r="B25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
         <f t="shared" si="0"/>
-        <v>-0.84622040417517064</v>
-      </c>
-      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="B26">
         <f t="shared" si="1"/>
-        <v>-0.53283302033339752</v>
+        <v>-0.90557836200662389</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>0.42417900733699698</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f>A25+$B$1</f>
-        <v>24</v>
-      </c>
-      <c r="B26">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
         <f t="shared" si="0"/>
-        <v>-0.90557836200662389</v>
-      </c>
-      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="B27">
         <f t="shared" si="1"/>
-        <v>0.42417900733699698</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f>A26+$B$1</f>
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
         <v>-0.13235175009777303</v>
       </c>
       <c r="C27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99120281186347359</v>
       </c>
     </row>

--- a/test/Interp.xlsx
+++ b/test/Interp.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19060" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Linear" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Interp_out" localSheetId="1">Linear!$A$1:$C$100</definedName>
+  </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -27,6 +31,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Interp_out" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/JYD/Documents/Git/CPP/BladeBuilder/test/Interp_out.txt" thousands=" " tab="0" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -338,6 +356,656 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Linear</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Linear!$A$1:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.252525</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.505051</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.757576</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.26263</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.51515</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.76768</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.27273</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.52525</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.77778</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0303</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.28283</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.53535</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.78788</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.0404</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.29293</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.54545</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.79798</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.05051</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.30303</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.55556</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.80808</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.06061</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.31313</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.56566</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.81818</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.07071</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.32323</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.57576</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.82828</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.08081</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.33333</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.58586</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.838380000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.09091</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.34343</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.59596</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.84848</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.101</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.3535</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.6061</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.8586</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.1111</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.3636</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.6162</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.8687</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12.1212</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.3737</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12.6263</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>12.8788</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13.1313</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13.3838</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13.6364</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13.8889</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14.1414</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14.3939</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14.6465</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14.899</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15.1515</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15.404</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>15.6566</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>15.9091</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16.1616</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16.4141</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16.6667</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16.9192</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>17.1717</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>17.4242</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>17.6768</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>17.9293</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>18.1818</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>18.4343</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18.6869</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>18.9394</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19.1919</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>19.4444</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19.697</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>19.9495</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20.202</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20.4545</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>20.7071</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>20.9596</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>21.2121</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>21.4646</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>21.7172</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>21.9697</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>22.2222</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>22.4747</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>22.7273</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>22.9798</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>23.2323</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>23.4848</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>23.7374</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>23.9899</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>24.2424</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>24.4949</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>24.7475</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>25.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Linear!$B$1:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.212493</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.424985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.637478</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.842156</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.859284</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.876412</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89354</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.893779</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.699794</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.50581</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.311826</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11391</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.112838</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.339586</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.566334</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.764969</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.81601</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.867051</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.918092</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.924606</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.753013</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.581419</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.409826</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.222664</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0138013</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.250266</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.486732</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.680488</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.76442</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.848352</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.932284</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.942713</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.796945</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.651177</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.50541</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.325197</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0837473</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.157702</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.399151</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.590079</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.705222</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.820366</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.93551</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.948499</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.831475</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.71445</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.597426</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.420604</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.179003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0625976</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.304199</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.495073</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.639124</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.783175</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.927225</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.942481</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.856542</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.770603</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.684664</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.508138</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.271221</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.0343037</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.202613</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.396751</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.566825</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.736899</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.906974</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.925266</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.872133</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.818999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.765865</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.587194</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.359703</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.132212</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0952794</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.296325</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.489019</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.681713</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.874406</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.897533</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.878268</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.859003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.839738</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.657306</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.443794</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.230282</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.0167701</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.194933</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.40639</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.617847</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.829304</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.860011</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.875</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.889989</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.904979</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.718129</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.52287</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.327611</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.132352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -346,11 +1014,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1288960272"/>
-        <c:axId val="1239165648"/>
+        <c:axId val="1232552768"/>
+        <c:axId val="1232555520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1288960272"/>
+        <c:axId val="1232552768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -407,12 +1075,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1239165648"/>
+        <c:crossAx val="1232555520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1239165648"/>
+        <c:axId val="1232555520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -469,7 +1137,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1288960272"/>
+        <c:crossAx val="1232552768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -784,6 +1452,656 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Linear</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Linear!$A$1:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.252525</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.505051</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.757576</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.26263</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.51515</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.76768</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.27273</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.52525</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.77778</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0303</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.28283</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.53535</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.78788</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.0404</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.29293</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.54545</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.79798</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.05051</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.30303</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.55556</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.80808</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.06061</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.31313</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.56566</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.81818</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.07071</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.32323</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.57576</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.82828</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.08081</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.33333</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.58586</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.838380000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.09091</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.34343</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.59596</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.84848</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.101</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.3535</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.6061</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.8586</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.1111</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.3636</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.6162</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.8687</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12.1212</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.3737</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12.6263</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>12.8788</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13.1313</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13.3838</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13.6364</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13.8889</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14.1414</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14.3939</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14.6465</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14.899</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15.1515</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15.404</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>15.6566</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>15.9091</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16.1616</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16.4141</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16.6667</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16.9192</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>17.1717</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>17.4242</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>17.6768</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>17.9293</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>18.1818</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>18.4343</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18.6869</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>18.9394</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19.1919</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>19.4444</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19.697</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>19.9495</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20.202</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20.4545</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>20.7071</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>20.9596</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>21.2121</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>21.4646</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>21.7172</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>21.9697</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>22.2222</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>22.4747</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>22.7273</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>22.9798</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>23.2323</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>23.4848</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>23.7374</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>23.9899</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>24.2424</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>24.4949</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>24.7475</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>25.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Linear!$C$1:$C$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.883915</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.767829</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.651744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.530641</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.289114</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0475861</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.193941</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.42774</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.57265</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.717561</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.862471</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.9798</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.894864</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.809927</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.72499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.615773</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.379079</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.142386</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0943075</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.317829</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.488665</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.6595</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.830335</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.947669</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.895581</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.843493</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.791406</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.690308</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.463186</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.236065</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.00894278</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.207369</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.40071</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.594051</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.787392</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.904579</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.886383</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.868186</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.84999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.75387</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.540865</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.327861</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.114857</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0976955</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.309672</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.521649</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.733626</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.851562</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.867621</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.88368</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.899739</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.806242</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.611619</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.416995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.222372</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.00997003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.2164</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.44277</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.66914</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.789684</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.839676</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.889669</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.939662</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.847357</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.67501</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.502662</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.330315</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.114525</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.121707</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.357939</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.594172</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.720024</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.80295</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.885876</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.968802</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.877272</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.73065</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.584028</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.437406</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.214989</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.0263776</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.267744</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.509111</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.643657</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.757857</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.872057</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.986257</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.896155</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.778193</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.660232</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.54227</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.310497</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.0688272</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.172843</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.414512</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.561639</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.704827</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.848015</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.991203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -792,11 +2110,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1289360432"/>
-        <c:axId val="1289362480"/>
+        <c:axId val="1231468736"/>
+        <c:axId val="1231470784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1289360432"/>
+        <c:axId val="1231468736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -853,12 +2171,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1289362480"/>
+        <c:crossAx val="1231470784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1289362480"/>
+        <c:axId val="1231470784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -915,7 +2233,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1289360432"/>
+        <c:crossAx val="1231468736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2087,14 +3405,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
+      <xdr:colOff>349250</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -2103,7 +3421,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48EB77AE-7FA8-423F-9346-CA104EEBF2A6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48EB77AE-7FA8-423F-9346-CA104EEBF2A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2139,7 +3457,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48EB77AE-7FA8-423F-9346-CA104EEBF2A6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48EB77AE-7FA8-423F-9346-CA104EEBF2A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2160,6 +3478,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Interp_out" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2839,4 +4161,1122 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.252525</v>
+      </c>
+      <c r="B2">
+        <v>0.21249299999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.88391500000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.50505100000000003</v>
+      </c>
+      <c r="B3">
+        <v>0.424985</v>
+      </c>
+      <c r="C3">
+        <v>0.76782899999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.75757600000000003</v>
+      </c>
+      <c r="B4">
+        <v>0.63747799999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.65174399999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1.0101</v>
+      </c>
+      <c r="B5">
+        <v>0.84215600000000002</v>
+      </c>
+      <c r="C5">
+        <v>0.53064100000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1.2626299999999999</v>
+      </c>
+      <c r="B6">
+        <v>0.85928400000000005</v>
+      </c>
+      <c r="C6">
+        <v>0.28911399999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1.51515</v>
+      </c>
+      <c r="B7">
+        <v>0.87641199999999997</v>
+      </c>
+      <c r="C7">
+        <v>4.7586099999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1.7676799999999999</v>
+      </c>
+      <c r="B8">
+        <v>0.89354</v>
+      </c>
+      <c r="C8">
+        <v>-0.193941</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2.0202</v>
+      </c>
+      <c r="B9">
+        <v>0.89377899999999999</v>
+      </c>
+      <c r="C9">
+        <v>-0.42774000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2.2727300000000001</v>
+      </c>
+      <c r="B10">
+        <v>0.69979400000000003</v>
+      </c>
+      <c r="C10">
+        <v>-0.57264999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2.5252500000000002</v>
+      </c>
+      <c r="B11">
+        <v>0.50580999999999998</v>
+      </c>
+      <c r="C11">
+        <v>-0.717561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2.7777799999999999</v>
+      </c>
+      <c r="B12">
+        <v>0.31182599999999999</v>
+      </c>
+      <c r="C12">
+        <v>-0.86247099999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3.0303</v>
+      </c>
+      <c r="B13">
+        <v>0.11391</v>
+      </c>
+      <c r="C13">
+        <v>-0.9798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3.2828300000000001</v>
+      </c>
+      <c r="B14">
+        <v>-0.11283799999999999</v>
+      </c>
+      <c r="C14">
+        <v>-0.89486399999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3.5353500000000002</v>
+      </c>
+      <c r="B15">
+        <v>-0.339586</v>
+      </c>
+      <c r="C15">
+        <v>-0.80992699999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3.7878799999999999</v>
+      </c>
+      <c r="B16">
+        <v>-0.566334</v>
+      </c>
+      <c r="C16">
+        <v>-0.72499000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4.0404</v>
+      </c>
+      <c r="B17">
+        <v>-0.76496900000000001</v>
+      </c>
+      <c r="C17">
+        <v>-0.61577300000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4.2929300000000001</v>
+      </c>
+      <c r="B18">
+        <v>-0.81601000000000001</v>
+      </c>
+      <c r="C18">
+        <v>-0.379079</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4.5454499999999998</v>
+      </c>
+      <c r="B19">
+        <v>-0.86705100000000002</v>
+      </c>
+      <c r="C19">
+        <v>-0.14238600000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4.7979799999999999</v>
+      </c>
+      <c r="B20">
+        <v>-0.91809200000000002</v>
+      </c>
+      <c r="C20">
+        <v>9.4307500000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5.0505100000000001</v>
+      </c>
+      <c r="B21">
+        <v>-0.92460600000000004</v>
+      </c>
+      <c r="C21">
+        <v>0.31782899999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5.3030299999999997</v>
+      </c>
+      <c r="B22">
+        <v>-0.75301300000000004</v>
+      </c>
+      <c r="C22">
+        <v>0.48866500000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5.5555599999999998</v>
+      </c>
+      <c r="B23">
+        <v>-0.58141900000000002</v>
+      </c>
+      <c r="C23">
+        <v>0.65949999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5.8080800000000004</v>
+      </c>
+      <c r="B24">
+        <v>-0.40982600000000002</v>
+      </c>
+      <c r="C24">
+        <v>0.83033500000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6.0606099999999996</v>
+      </c>
+      <c r="B25">
+        <v>-0.222664</v>
+      </c>
+      <c r="C25">
+        <v>0.94766899999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6.3131300000000001</v>
+      </c>
+      <c r="B26">
+        <v>1.3801300000000001E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.89558099999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6.5656600000000003</v>
+      </c>
+      <c r="B27">
+        <v>0.25026599999999999</v>
+      </c>
+      <c r="C27">
+        <v>0.84349300000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6.8181799999999999</v>
+      </c>
+      <c r="B28">
+        <v>0.486732</v>
+      </c>
+      <c r="C28">
+        <v>0.79140600000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>7.0707100000000001</v>
+      </c>
+      <c r="B29">
+        <v>0.68048799999999998</v>
+      </c>
+      <c r="C29">
+        <v>0.69030800000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>7.3232299999999997</v>
+      </c>
+      <c r="B30">
+        <v>0.76441999999999999</v>
+      </c>
+      <c r="C30">
+        <v>0.46318599999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>7.5757599999999998</v>
+      </c>
+      <c r="B31">
+        <v>0.84835199999999999</v>
+      </c>
+      <c r="C31">
+        <v>0.236065</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>7.8282800000000003</v>
+      </c>
+      <c r="B32">
+        <v>0.932284</v>
+      </c>
+      <c r="C32">
+        <v>8.9427800000000009E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>8.0808099999999996</v>
+      </c>
+      <c r="B33">
+        <v>0.94271300000000002</v>
+      </c>
+      <c r="C33">
+        <v>-0.207369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>8.3333300000000001</v>
+      </c>
+      <c r="B34">
+        <v>0.79694500000000001</v>
+      </c>
+      <c r="C34">
+        <v>-0.40071000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>8.5858600000000003</v>
+      </c>
+      <c r="B35">
+        <v>0.65117700000000001</v>
+      </c>
+      <c r="C35">
+        <v>-0.594051</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>8.8383800000000008</v>
+      </c>
+      <c r="B36">
+        <v>0.50541000000000003</v>
+      </c>
+      <c r="C36">
+        <v>-0.78739199999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>9.0909099999999992</v>
+      </c>
+      <c r="B37">
+        <v>0.32519700000000001</v>
+      </c>
+      <c r="C37">
+        <v>-0.90457900000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>9.3434299999999997</v>
+      </c>
+      <c r="B38">
+        <v>8.3747299999999997E-2</v>
+      </c>
+      <c r="C38">
+        <v>-0.88638300000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>9.5959599999999998</v>
+      </c>
+      <c r="B39">
+        <v>-0.15770200000000001</v>
+      </c>
+      <c r="C39">
+        <v>-0.86818600000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>9.8484800000000003</v>
+      </c>
+      <c r="B40">
+        <v>-0.39915099999999998</v>
+      </c>
+      <c r="C40">
+        <v>-0.84999000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>10.101000000000001</v>
+      </c>
+      <c r="B41">
+        <v>-0.59007900000000002</v>
+      </c>
+      <c r="C41">
+        <v>-0.75387000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>10.3535</v>
+      </c>
+      <c r="B42">
+        <v>-0.70522200000000002</v>
+      </c>
+      <c r="C42">
+        <v>-0.54086500000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>10.6061</v>
+      </c>
+      <c r="B43">
+        <v>-0.82036600000000004</v>
+      </c>
+      <c r="C43">
+        <v>-0.32786100000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>10.858599999999999</v>
+      </c>
+      <c r="B44">
+        <v>-0.93550999999999995</v>
+      </c>
+      <c r="C44">
+        <v>-0.114857</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>11.1111</v>
+      </c>
+      <c r="B45">
+        <v>-0.94849899999999998</v>
+      </c>
+      <c r="C45">
+        <v>9.7695500000000005E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>11.3636</v>
+      </c>
+      <c r="B46">
+        <v>-0.83147499999999996</v>
+      </c>
+      <c r="C46">
+        <v>0.309672</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>11.616199999999999</v>
+      </c>
+      <c r="B47">
+        <v>-0.71445000000000003</v>
+      </c>
+      <c r="C47">
+        <v>0.52164900000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>11.8687</v>
+      </c>
+      <c r="B48">
+        <v>-0.59742600000000001</v>
+      </c>
+      <c r="C48">
+        <v>0.733626</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>12.1212</v>
+      </c>
+      <c r="B49">
+        <v>-0.42060399999999998</v>
+      </c>
+      <c r="C49">
+        <v>0.85156200000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>12.373699999999999</v>
+      </c>
+      <c r="B50">
+        <v>-0.179003</v>
+      </c>
+      <c r="C50">
+        <v>0.86762099999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>12.626300000000001</v>
+      </c>
+      <c r="B51">
+        <v>6.2597600000000003E-2</v>
+      </c>
+      <c r="C51">
+        <v>0.88368000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>12.8788</v>
+      </c>
+      <c r="B52">
+        <v>0.304199</v>
+      </c>
+      <c r="C52">
+        <v>0.89973899999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>13.1313</v>
+      </c>
+      <c r="B53">
+        <v>0.49507299999999999</v>
+      </c>
+      <c r="C53">
+        <v>0.80624200000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>13.383800000000001</v>
+      </c>
+      <c r="B54">
+        <v>0.63912400000000003</v>
+      </c>
+      <c r="C54">
+        <v>0.61161900000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>13.6364</v>
+      </c>
+      <c r="B55">
+        <v>0.78317499999999995</v>
+      </c>
+      <c r="C55">
+        <v>0.416995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>13.8889</v>
+      </c>
+      <c r="B56">
+        <v>0.92722499999999997</v>
+      </c>
+      <c r="C56">
+        <v>0.22237199999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>14.141400000000001</v>
+      </c>
+      <c r="B57">
+        <v>0.94248100000000001</v>
+      </c>
+      <c r="C57">
+        <v>9.9700299999999995E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>14.3939</v>
+      </c>
+      <c r="B58">
+        <v>0.85654200000000003</v>
+      </c>
+      <c r="C58">
+        <v>-0.21640000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>14.6465</v>
+      </c>
+      <c r="B59">
+        <v>0.77060300000000004</v>
+      </c>
+      <c r="C59">
+        <v>-0.44277</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>14.898999999999999</v>
+      </c>
+      <c r="B60">
+        <v>0.68466400000000005</v>
+      </c>
+      <c r="C60">
+        <v>-0.66913999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>15.1515</v>
+      </c>
+      <c r="B61">
+        <v>0.50813799999999998</v>
+      </c>
+      <c r="C61">
+        <v>-0.78968400000000005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>15.404</v>
+      </c>
+      <c r="B62">
+        <v>0.27122099999999999</v>
+      </c>
+      <c r="C62">
+        <v>-0.83967599999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>15.656599999999999</v>
+      </c>
+      <c r="B63">
+        <v>3.4303699999999999E-2</v>
+      </c>
+      <c r="C63">
+        <v>-0.88966900000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>15.9091</v>
+      </c>
+      <c r="B64">
+        <v>-0.20261299999999999</v>
+      </c>
+      <c r="C64">
+        <v>-0.939662</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>16.1616</v>
+      </c>
+      <c r="B65">
+        <v>-0.39675100000000002</v>
+      </c>
+      <c r="C65">
+        <v>-0.84735700000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>16.414100000000001</v>
+      </c>
+      <c r="B66">
+        <v>-0.56682500000000002</v>
+      </c>
+      <c r="C66">
+        <v>-0.67501</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>16.666699999999999</v>
+      </c>
+      <c r="B67">
+        <v>-0.73689899999999997</v>
+      </c>
+      <c r="C67">
+        <v>-0.50266200000000005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>16.9192</v>
+      </c>
+      <c r="B68">
+        <v>-0.90697399999999995</v>
+      </c>
+      <c r="C68">
+        <v>-0.33031500000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>17.171700000000001</v>
+      </c>
+      <c r="B69">
+        <v>-0.92526600000000003</v>
+      </c>
+      <c r="C69">
+        <v>-0.114525</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>17.424199999999999</v>
+      </c>
+      <c r="B70">
+        <v>-0.87213300000000005</v>
+      </c>
+      <c r="C70">
+        <v>0.121707</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>17.6768</v>
+      </c>
+      <c r="B71">
+        <v>-0.81899900000000003</v>
+      </c>
+      <c r="C71">
+        <v>0.35793900000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>17.929300000000001</v>
+      </c>
+      <c r="B72">
+        <v>-0.76586500000000002</v>
+      </c>
+      <c r="C72">
+        <v>0.59417200000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>18.181799999999999</v>
+      </c>
+      <c r="B73">
+        <v>-0.58719399999999999</v>
+      </c>
+      <c r="C73">
+        <v>0.720024</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>18.4343</v>
+      </c>
+      <c r="B74">
+        <v>-0.35970299999999999</v>
+      </c>
+      <c r="C74">
+        <v>0.80295000000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>18.686900000000001</v>
+      </c>
+      <c r="B75">
+        <v>-0.132212</v>
+      </c>
+      <c r="C75">
+        <v>0.885876</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>18.939399999999999</v>
+      </c>
+      <c r="B76">
+        <v>9.52794E-2</v>
+      </c>
+      <c r="C76">
+        <v>0.96880200000000005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>19.1919</v>
+      </c>
+      <c r="B77">
+        <v>0.29632500000000001</v>
+      </c>
+      <c r="C77">
+        <v>0.87727200000000005</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>19.444400000000002</v>
+      </c>
+      <c r="B78">
+        <v>0.48901899999999998</v>
+      </c>
+      <c r="C78">
+        <v>0.73065000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>19.696999999999999</v>
+      </c>
+      <c r="B79">
+        <v>0.68171300000000001</v>
+      </c>
+      <c r="C79">
+        <v>0.58402799999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>19.9495</v>
+      </c>
+      <c r="B80">
+        <v>0.87440600000000002</v>
+      </c>
+      <c r="C80">
+        <v>0.43740600000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>20.202000000000002</v>
+      </c>
+      <c r="B81">
+        <v>0.89753300000000003</v>
+      </c>
+      <c r="C81">
+        <v>0.21498900000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>20.454499999999999</v>
+      </c>
+      <c r="B82">
+        <v>0.87826800000000005</v>
+      </c>
+      <c r="C82">
+        <v>-2.6377600000000001E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>20.707100000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.85900299999999996</v>
+      </c>
+      <c r="C83">
+        <v>-0.26774399999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>20.959599999999998</v>
+      </c>
+      <c r="B84">
+        <v>0.83973799999999998</v>
+      </c>
+      <c r="C84">
+        <v>-0.50911099999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>21.2121</v>
+      </c>
+      <c r="B85">
+        <v>0.65730599999999995</v>
+      </c>
+      <c r="C85">
+        <v>-0.64365700000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>21.464600000000001</v>
+      </c>
+      <c r="B86">
+        <v>0.44379400000000002</v>
+      </c>
+      <c r="C86">
+        <v>-0.757857</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>21.717199999999998</v>
+      </c>
+      <c r="B87">
+        <v>0.23028199999999999</v>
+      </c>
+      <c r="C87">
+        <v>-0.87205699999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>21.9697</v>
+      </c>
+      <c r="B88">
+        <v>1.67701E-2</v>
+      </c>
+      <c r="C88">
+        <v>-0.98625700000000005</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>22.222200000000001</v>
+      </c>
+      <c r="B89">
+        <v>-0.194933</v>
+      </c>
+      <c r="C89">
+        <v>-0.89615500000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>22.474699999999999</v>
+      </c>
+      <c r="B90">
+        <v>-0.40638999999999997</v>
+      </c>
+      <c r="C90">
+        <v>-0.77819300000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>22.7273</v>
+      </c>
+      <c r="B91">
+        <v>-0.61784700000000004</v>
+      </c>
+      <c r="C91">
+        <v>-0.66023200000000004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>22.979800000000001</v>
+      </c>
+      <c r="B92">
+        <v>-0.82930400000000004</v>
+      </c>
+      <c r="C92">
+        <v>-0.54227000000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>23.232299999999999</v>
+      </c>
+      <c r="B93">
+        <v>-0.86001099999999997</v>
+      </c>
+      <c r="C93">
+        <v>-0.31049700000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>23.4848</v>
+      </c>
+      <c r="B94">
+        <v>-0.875</v>
+      </c>
+      <c r="C94">
+        <v>-6.8827200000000005E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>23.737400000000001</v>
+      </c>
+      <c r="B95">
+        <v>-0.88998900000000003</v>
+      </c>
+      <c r="C95">
+        <v>0.172843</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>23.989899999999999</v>
+      </c>
+      <c r="B96">
+        <v>-0.90497899999999998</v>
+      </c>
+      <c r="C96">
+        <v>0.41451199999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>24.2424</v>
+      </c>
+      <c r="B97">
+        <v>-0.71812900000000002</v>
+      </c>
+      <c r="C97">
+        <v>0.561639</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>24.494900000000001</v>
+      </c>
+      <c r="B98">
+        <v>-0.52286999999999995</v>
+      </c>
+      <c r="C98">
+        <v>0.70482699999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>24.747499999999999</v>
+      </c>
+      <c r="B99">
+        <v>-0.32761099999999999</v>
+      </c>
+      <c r="C99">
+        <v>0.84801499999999996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>25</v>
+      </c>
+      <c r="B100">
+        <v>-0.132352</v>
+      </c>
+      <c r="C100">
+        <v>0.99120299999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/Interp.xlsx
+++ b/test/Interp.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14220"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14220" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Linear" sheetId="2" r:id="rId2"/>
+    <sheet name="Chart1" sheetId="3" r:id="rId1"/>
+    <sheet name="Chart2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Linear" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Interp_out" localSheetId="1">Linear!$A$1:$C$100</definedName>
+    <definedName name="Interp_out" localSheetId="3">Linear!$A$1:$C$100</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +38,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="Interp_out" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/JYD/Documents/Git/CPP/BladeBuilder/test/Interp_out.txt" thousands=" " tab="0" space="1" consecutive="1">
+    <textPr fileType="mac" sourceFile="/Users/JYD/Documents/Git/CPP/BladeBuilder/test/Interp_out.txt" thousands=" " tab="0" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -705,298 +707,298 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.212493</c:v>
+                  <c:v>0.300713</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.424985</c:v>
+                  <c:v>0.561954</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.637478</c:v>
+                  <c:v>0.752902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.842156</c:v>
+                  <c:v>0.842834</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.859284</c:v>
+                  <c:v>0.872419</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.876412</c:v>
+                  <c:v>0.893353</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.89354</c:v>
+                  <c:v>0.905637</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.893779</c:v>
+                  <c:v>0.908703</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.699794</c:v>
+                  <c:v>0.814115</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.50581</c:v>
+                  <c:v>0.605247</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.311826</c:v>
+                  <c:v>0.350052</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.11391</c:v>
+                  <c:v>0.115319</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.112838</c:v>
+                  <c:v>-0.131722</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.339586</c:v>
+                  <c:v>-0.397831</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.566334</c:v>
+                  <c:v>-0.629039</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.764969</c:v>
+                  <c:v>-0.772806</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.81601</c:v>
+                  <c:v>-0.857874</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.867051</c:v>
+                  <c:v>-0.917164</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.918092</c:v>
+                  <c:v>-0.950675</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.924606</c:v>
+                  <c:v>-0.955856</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.753013</c:v>
+                  <c:v>-0.861258</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.581419</c:v>
+                  <c:v>-0.673608</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.409826</c:v>
+                  <c:v>-0.446148</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.222664</c:v>
+                  <c:v>-0.228491</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0138013</c:v>
+                  <c:v>0.0151659</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.250266</c:v>
+                  <c:v>0.278532</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.486732</c:v>
+                  <c:v>0.520017</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.680488</c:v>
+                  <c:v>0.700473</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.76442</c:v>
+                  <c:v>0.832633</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.848352</c:v>
+                  <c:v>0.926392</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.932284</c:v>
+                  <c:v>0.978816</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.942713</c:v>
+                  <c:v>0.983261</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.796945</c:v>
+                  <c:v>0.896495</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.651177</c:v>
+                  <c:v>0.736109</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.50541</c:v>
+                  <c:v>0.539572</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.325197</c:v>
+                  <c:v>0.337551</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.0837473</c:v>
+                  <c:v>0.0924282</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.157702</c:v>
+                  <c:v>-0.175158</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.399151</c:v>
+                  <c:v>-0.422741</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.590079</c:v>
+                  <c:v>-0.614677</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.705222</c:v>
+                  <c:v>-0.779014</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.820366</c:v>
+                  <c:v>-0.909865</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.93551</c:v>
+                  <c:v>-0.987337</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.948499</c:v>
+                  <c:v>-0.99189</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.831475</c:v>
+                  <c:v>-0.920472</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.71445</c:v>
+                  <c:v>-0.792464</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.597426</c:v>
+                  <c:v>-0.628809</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.420604</c:v>
+                  <c:v>-0.4412</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.179003</c:v>
+                  <c:v>-0.198263</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.0625976</c:v>
+                  <c:v>0.0693328</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.304199</c:v>
+                  <c:v>0.319094</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.495073</c:v>
+                  <c:v>0.522757</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.639124</c:v>
+                  <c:v>0.719056</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.783175</c:v>
+                  <c:v>0.883429</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.927225</c:v>
+                  <c:v>0.979425</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.942481</c:v>
+                  <c:v>0.983091</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.856542</c:v>
+                  <c:v>0.933901</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.770603</c:v>
+                  <c:v>0.842268</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.684664</c:v>
+                  <c:v>0.712189</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.508138</c:v>
+                  <c:v>0.538168</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.271221</c:v>
+                  <c:v>0.301243</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.0343037</c:v>
+                  <c:v>0.0378595</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.202613</c:v>
+                  <c:v>-0.210311</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.396751</c:v>
+                  <c:v>-0.426534</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.566825</c:v>
+                  <c:v>-0.653312</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.736899</c:v>
+                  <c:v>-0.84648</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.906974</c:v>
+                  <c:v>-0.953752</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.925266</c:v>
+                  <c:v>-0.955193</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.872133</c:v>
+                  <c:v>-0.923528</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.818999</c:v>
+                  <c:v>-0.865027</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.765865</c:v>
+                  <c:v>-0.77969</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.587194</c:v>
+                  <c:v>-0.643758</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.359703</c:v>
+                  <c:v>-0.419065</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.132212</c:v>
+                  <c:v>-0.154363</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.0952794</c:v>
+                  <c:v>0.0973078</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.296325</c:v>
+                  <c:v>0.327671</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.489019</c:v>
+                  <c:v>0.582208</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.681713</c:v>
+                  <c:v>0.798447</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.874406</c:v>
+                  <c:v>0.909318</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.897533</c:v>
+                  <c:v>0.909832</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.878268</c:v>
+                  <c:v>0.897183</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.859003</c:v>
+                  <c:v>0.874804</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.839738</c:v>
+                  <c:v>0.842696</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.657306</c:v>
+                  <c:v>0.748403</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.443794</c:v>
+                  <c:v>0.5356</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.230282</c:v>
+                  <c:v>0.269442</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.0167701</c:v>
+                  <c:v>0.0172712</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.194933</c:v>
+                  <c:v>-0.223083</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.40639</c:v>
+                  <c:v>-0.492</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-0.617847</c:v>
+                  <c:v>-0.721735</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.829304</c:v>
+                  <c:v>-0.843243</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-0.860011</c:v>
+                  <c:v>-0.870597</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.875</c:v>
+                  <c:v>-0.889826</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.889989</c:v>
+                  <c:v>-0.901484</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-0.904979</c:v>
+                  <c:v>-0.905572</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-0.718129</c:v>
+                  <c:v>-0.844245</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-0.52287</c:v>
+                  <c:v>-0.671996</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-0.327611</c:v>
+                  <c:v>-0.423202</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>-0.132352</c:v>
@@ -1014,11 +1016,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1232552768"/>
-        <c:axId val="1232555520"/>
+        <c:axId val="-864121328"/>
+        <c:axId val="-864118848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1232552768"/>
+        <c:axId val="-864121328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,12 +1077,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1232555520"/>
+        <c:crossAx val="-864118848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1232555520"/>
+        <c:axId val="-864118848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1137,7 +1139,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1232552768"/>
+        <c:crossAx val="-864121328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1185,11 +1187,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1801,298 +1798,298 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.883915</c:v>
+                  <c:v>0.930797</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.767829</c:v>
+                  <c:v>0.829917</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.651744</c:v>
+                  <c:v>0.69736</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.530641</c:v>
+                  <c:v>0.53308</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.289114</c:v>
+                  <c:v>0.314851</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0475861</c:v>
+                  <c:v>0.0530499</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.193941</c:v>
+                  <c:v>-0.209842</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.42774</c:v>
+                  <c:v>-0.431679</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.57265</c:v>
+                  <c:v>-0.631288</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.717561</c:v>
+                  <c:v>-0.815369</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.862471</c:v>
+                  <c:v>-0.946961</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.9798</c:v>
+                  <c:v>-0.989652</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.894864</c:v>
+                  <c:v>-0.96103</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.809927</c:v>
+                  <c:v>-0.888817</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.72499</c:v>
+                  <c:v>-0.77648</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.615773</c:v>
+                  <c:v>-0.626748</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.379079</c:v>
+                  <c:v>-0.415173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.142386</c:v>
+                  <c:v>-0.158614</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0943075</c:v>
+                  <c:v>0.101296</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.317829</c:v>
+                  <c:v>0.325405</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.488665</c:v>
+                  <c:v>0.551157</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.6595</c:v>
+                  <c:v>0.766609</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.830335</c:v>
+                  <c:v>0.918998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.947669</c:v>
+                  <c:v>0.959413</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.895581</c:v>
+                  <c:v>0.939945</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.843493</c:v>
+                  <c:v>0.894171</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.791406</c:v>
+                  <c:v>0.82209</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.690308</c:v>
+                  <c:v>0.719726</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.463186</c:v>
+                  <c:v>0.530535</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.236065</c:v>
+                  <c:v>0.27711</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.00894278</c:v>
+                  <c:v>0.0129541</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.207369</c:v>
+                  <c:v>-0.216531</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.40071</c:v>
+                  <c:v>-0.467333</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.594051</c:v>
+                  <c:v>-0.709603</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.787392</c:v>
+                  <c:v>-0.875831</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.904579</c:v>
+                  <c:v>-0.910535</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.886383</c:v>
+                  <c:v>-0.902631</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.868186</c:v>
+                  <c:v>-0.885537</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.84999</c:v>
+                  <c:v>-0.859253</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.75387</c:v>
+                  <c:v>-0.810945</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.540865</c:v>
+                  <c:v>-0.644033</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.327861</c:v>
+                  <c:v>-0.393346</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.114857</c:v>
+                  <c:v>-0.126653</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.0976955</c:v>
+                  <c:v>0.10569</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.309672</c:v>
+                  <c:v>0.369905</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.521649</c:v>
+                  <c:v>0.625626</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.733626</c:v>
+                  <c:v>0.804233</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.851562</c:v>
+                  <c:v>0.858336</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.867621</c:v>
+                  <c:v>0.882505</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.88368</c:v>
+                  <c:v>0.898564</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.899739</c:v>
+                  <c:v>0.906512</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.806242</c:v>
+                  <c:v>0.883554</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.611619</c:v>
+                  <c:v>0.729638</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.416995</c:v>
+                  <c:v>0.491105</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.222372</c:v>
+                  <c:v>0.236348</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.00997003</c:v>
+                  <c:v>0.00792946</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.2164</c:v>
+                  <c:v>-0.254377</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.44277</c:v>
+                  <c:v>-0.511636</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.66914</c:v>
+                  <c:v>-0.70942</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.789684</c:v>
+                  <c:v>-0.815134</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.839676</c:v>
+                  <c:v>-0.887346</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.889669</c:v>
+                  <c:v>-0.934309</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.939662</c:v>
+                  <c:v>-0.956023</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.847357</c:v>
+                  <c:v>-0.927657</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.67501</c:v>
+                  <c:v>-0.784734</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.502662</c:v>
+                  <c:v>-0.571957</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.330315</c:v>
+                  <c:v>-0.343047</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.114525</c:v>
+                  <c:v>-0.122013</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.121707</c:v>
+                  <c:v>0.135373</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.357939</c:v>
+                  <c:v>0.393934</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.594172</c:v>
+                  <c:v>0.612119</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.720024</c:v>
+                  <c:v>0.765851</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.80295</c:v>
+                  <c:v>0.880179</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.885876</c:v>
+                  <c:v>0.954833</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.968802</c:v>
+                  <c:v>0.987413</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.877272</c:v>
+                  <c:v>0.95562</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.73065</c:v>
+                  <c:v>0.830883</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.584028</c:v>
+                  <c:v>0.648803</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.437406</c:v>
+                  <c:v>0.447354</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.214989</c:v>
+                  <c:v>0.230921</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.0263776</c:v>
+                  <c:v>-0.029384</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.267744</c:v>
+                  <c:v>-0.293237</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.509111</c:v>
+                  <c:v>-0.518185</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.643657</c:v>
+                  <c:v>-0.692844</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.757857</c:v>
+                  <c:v>-0.843657</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.872057</c:v>
+                  <c:v>-0.952287</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.986257</c:v>
+                  <c:v>-0.999367</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.896155</c:v>
+                  <c:v>-0.968359</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.778193</c:v>
+                  <c:v>-0.868374</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-0.660232</c:v>
+                  <c:v>-0.720834</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.54227</c:v>
+                  <c:v>-0.547207</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-0.310497</c:v>
+                  <c:v>-0.335954</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.0688272</c:v>
+                  <c:v>-0.0767299</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.172843</c:v>
+                  <c:v>0.188229</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.414512</c:v>
+                  <c:v>0.416418</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.561639</c:v>
+                  <c:v>0.597451</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.704827</c:v>
+                  <c:v>0.753571</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.848015</c:v>
+                  <c:v>0.884821</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>0.991203</c:v>
@@ -2110,11 +2107,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1231468736"/>
-        <c:axId val="1231470784"/>
+        <c:axId val="-867923536"/>
+        <c:axId val="-867921488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1231468736"/>
+        <c:axId val="-867923536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2171,12 +2168,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1231470784"/>
+        <c:crossAx val="-867921488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1231470784"/>
+        <c:axId val="-867921488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2233,7 +2230,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1231468736"/>
+        <c:crossAx val="-867923536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2281,11 +2278,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3401,31 +3393,39 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="105" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>654050</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9313333" cy="6071810"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48EB77AE-7FA8-423F-9346-CA104EEBF2A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3438,31 +3438,20 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9313333" cy="6071810"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48EB77AE-7FA8-423F-9346-CA104EEBF2A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3471,12 +3460,12 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3783,7 +3772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -4159,7 +4148,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4192,10 +4180,10 @@
         <v>0.252525</v>
       </c>
       <c r="B2">
-        <v>0.21249299999999999</v>
+        <v>0.30071300000000001</v>
       </c>
       <c r="C2">
-        <v>0.88391500000000001</v>
+        <v>0.93079699999999999</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4203,10 +4191,10 @@
         <v>0.50505100000000003</v>
       </c>
       <c r="B3">
-        <v>0.424985</v>
+        <v>0.56195399999999995</v>
       </c>
       <c r="C3">
-        <v>0.76782899999999998</v>
+        <v>0.82991700000000002</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4214,10 +4202,10 @@
         <v>0.75757600000000003</v>
       </c>
       <c r="B4">
-        <v>0.63747799999999999</v>
+        <v>0.75290199999999996</v>
       </c>
       <c r="C4">
-        <v>0.65174399999999999</v>
+        <v>0.69735999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -4225,10 +4213,10 @@
         <v>1.0101</v>
       </c>
       <c r="B5">
-        <v>0.84215600000000002</v>
+        <v>0.84283399999999997</v>
       </c>
       <c r="C5">
-        <v>0.53064100000000003</v>
+        <v>0.53308</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -4236,10 +4224,10 @@
         <v>1.2626299999999999</v>
       </c>
       <c r="B6">
-        <v>0.85928400000000005</v>
+        <v>0.87241900000000006</v>
       </c>
       <c r="C6">
-        <v>0.28911399999999998</v>
+        <v>0.31485099999999999</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -4247,10 +4235,10 @@
         <v>1.51515</v>
       </c>
       <c r="B7">
-        <v>0.87641199999999997</v>
+        <v>0.89335299999999995</v>
       </c>
       <c r="C7">
-        <v>4.7586099999999999E-2</v>
+        <v>5.3049899999999997E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -4258,10 +4246,10 @@
         <v>1.7676799999999999</v>
       </c>
       <c r="B8">
-        <v>0.89354</v>
+        <v>0.90563700000000003</v>
       </c>
       <c r="C8">
-        <v>-0.193941</v>
+        <v>-0.209842</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -4269,10 +4257,10 @@
         <v>2.0202</v>
       </c>
       <c r="B9">
-        <v>0.89377899999999999</v>
+        <v>0.90870300000000004</v>
       </c>
       <c r="C9">
-        <v>-0.42774000000000001</v>
+        <v>-0.43167899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -4280,10 +4268,10 @@
         <v>2.2727300000000001</v>
       </c>
       <c r="B10">
-        <v>0.69979400000000003</v>
+        <v>0.81411500000000003</v>
       </c>
       <c r="C10">
-        <v>-0.57264999999999999</v>
+        <v>-0.63128799999999996</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -4291,10 +4279,10 @@
         <v>2.5252500000000002</v>
       </c>
       <c r="B11">
-        <v>0.50580999999999998</v>
+        <v>0.60524699999999998</v>
       </c>
       <c r="C11">
-        <v>-0.717561</v>
+        <v>-0.81536900000000001</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -4302,10 +4290,10 @@
         <v>2.7777799999999999</v>
       </c>
       <c r="B12">
-        <v>0.31182599999999999</v>
+        <v>0.35005199999999997</v>
       </c>
       <c r="C12">
-        <v>-0.86247099999999999</v>
+        <v>-0.94696100000000005</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -4313,10 +4301,10 @@
         <v>3.0303</v>
       </c>
       <c r="B13">
-        <v>0.11391</v>
+        <v>0.115319</v>
       </c>
       <c r="C13">
-        <v>-0.9798</v>
+        <v>-0.98965199999999998</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -4324,10 +4312,10 @@
         <v>3.2828300000000001</v>
       </c>
       <c r="B14">
-        <v>-0.11283799999999999</v>
+        <v>-0.13172200000000001</v>
       </c>
       <c r="C14">
-        <v>-0.89486399999999999</v>
+        <v>-0.96103000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -4335,10 +4323,10 @@
         <v>3.5353500000000002</v>
       </c>
       <c r="B15">
-        <v>-0.339586</v>
+        <v>-0.39783099999999999</v>
       </c>
       <c r="C15">
-        <v>-0.80992699999999995</v>
+        <v>-0.88881699999999997</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -4346,10 +4334,10 @@
         <v>3.7878799999999999</v>
       </c>
       <c r="B16">
-        <v>-0.566334</v>
+        <v>-0.62903900000000001</v>
       </c>
       <c r="C16">
-        <v>-0.72499000000000002</v>
+        <v>-0.77647999999999995</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4357,10 +4345,10 @@
         <v>4.0404</v>
       </c>
       <c r="B17">
-        <v>-0.76496900000000001</v>
+        <v>-0.77280599999999999</v>
       </c>
       <c r="C17">
-        <v>-0.61577300000000001</v>
+        <v>-0.62674799999999997</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -4368,10 +4356,10 @@
         <v>4.2929300000000001</v>
       </c>
       <c r="B18">
-        <v>-0.81601000000000001</v>
+        <v>-0.85787400000000003</v>
       </c>
       <c r="C18">
-        <v>-0.379079</v>
+        <v>-0.41517300000000001</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -4379,10 +4367,10 @@
         <v>4.5454499999999998</v>
       </c>
       <c r="B19">
-        <v>-0.86705100000000002</v>
+        <v>-0.91716399999999998</v>
       </c>
       <c r="C19">
-        <v>-0.14238600000000001</v>
+        <v>-0.158614</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4390,10 +4378,10 @@
         <v>4.7979799999999999</v>
       </c>
       <c r="B20">
-        <v>-0.91809200000000002</v>
+        <v>-0.95067500000000005</v>
       </c>
       <c r="C20">
-        <v>9.4307500000000002E-2</v>
+        <v>0.101296</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -4401,10 +4389,10 @@
         <v>5.0505100000000001</v>
       </c>
       <c r="B21">
-        <v>-0.92460600000000004</v>
+        <v>-0.95585600000000004</v>
       </c>
       <c r="C21">
-        <v>0.31782899999999997</v>
+        <v>0.325405</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4412,10 +4400,10 @@
         <v>5.3030299999999997</v>
       </c>
       <c r="B22">
-        <v>-0.75301300000000004</v>
+        <v>-0.86125799999999997</v>
       </c>
       <c r="C22">
-        <v>0.48866500000000002</v>
+        <v>0.55115700000000001</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -4423,10 +4411,10 @@
         <v>5.5555599999999998</v>
       </c>
       <c r="B23">
-        <v>-0.58141900000000002</v>
+        <v>-0.67360799999999998</v>
       </c>
       <c r="C23">
-        <v>0.65949999999999998</v>
+        <v>0.76660899999999998</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -4434,10 +4422,10 @@
         <v>5.8080800000000004</v>
       </c>
       <c r="B24">
-        <v>-0.40982600000000002</v>
+        <v>-0.44614799999999999</v>
       </c>
       <c r="C24">
-        <v>0.83033500000000005</v>
+        <v>0.91899799999999998</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -4445,10 +4433,10 @@
         <v>6.0606099999999996</v>
       </c>
       <c r="B25">
-        <v>-0.222664</v>
+        <v>-0.228491</v>
       </c>
       <c r="C25">
-        <v>0.94766899999999998</v>
+        <v>0.95941299999999996</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -4456,10 +4444,10 @@
         <v>6.3131300000000001</v>
       </c>
       <c r="B26">
-        <v>1.3801300000000001E-2</v>
+        <v>1.51659E-2</v>
       </c>
       <c r="C26">
-        <v>0.89558099999999996</v>
+        <v>0.93994500000000003</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -4467,10 +4455,10 @@
         <v>6.5656600000000003</v>
       </c>
       <c r="B27">
-        <v>0.25026599999999999</v>
+        <v>0.278532</v>
       </c>
       <c r="C27">
-        <v>0.84349300000000005</v>
+        <v>0.89417100000000005</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -4478,10 +4466,10 @@
         <v>6.8181799999999999</v>
       </c>
       <c r="B28">
-        <v>0.486732</v>
+        <v>0.52001699999999995</v>
       </c>
       <c r="C28">
-        <v>0.79140600000000005</v>
+        <v>0.82208999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -4489,10 +4477,10 @@
         <v>7.0707100000000001</v>
       </c>
       <c r="B29">
-        <v>0.68048799999999998</v>
+        <v>0.70047300000000001</v>
       </c>
       <c r="C29">
-        <v>0.69030800000000003</v>
+        <v>0.71972599999999998</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -4500,10 +4488,10 @@
         <v>7.3232299999999997</v>
       </c>
       <c r="B30">
-        <v>0.76441999999999999</v>
+        <v>0.83263299999999996</v>
       </c>
       <c r="C30">
-        <v>0.46318599999999999</v>
+        <v>0.53053499999999998</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -4511,10 +4499,10 @@
         <v>7.5757599999999998</v>
       </c>
       <c r="B31">
-        <v>0.84835199999999999</v>
+        <v>0.92639199999999999</v>
       </c>
       <c r="C31">
-        <v>0.236065</v>
+        <v>0.27711000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -4522,10 +4510,10 @@
         <v>7.8282800000000003</v>
       </c>
       <c r="B32">
-        <v>0.932284</v>
+        <v>0.97881600000000002</v>
       </c>
       <c r="C32">
-        <v>8.9427800000000009E-3</v>
+        <v>1.29541E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -4533,10 +4521,10 @@
         <v>8.0808099999999996</v>
       </c>
       <c r="B33">
-        <v>0.94271300000000002</v>
+        <v>0.98326100000000005</v>
       </c>
       <c r="C33">
-        <v>-0.207369</v>
+        <v>-0.216531</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -4544,10 +4532,10 @@
         <v>8.3333300000000001</v>
       </c>
       <c r="B34">
-        <v>0.79694500000000001</v>
+        <v>0.89649500000000004</v>
       </c>
       <c r="C34">
-        <v>-0.40071000000000001</v>
+        <v>-0.467333</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -4555,10 +4543,10 @@
         <v>8.5858600000000003</v>
       </c>
       <c r="B35">
-        <v>0.65117700000000001</v>
+        <v>0.73610900000000001</v>
       </c>
       <c r="C35">
-        <v>-0.594051</v>
+        <v>-0.70960299999999998</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -4566,10 +4554,10 @@
         <v>8.8383800000000008</v>
       </c>
       <c r="B36">
-        <v>0.50541000000000003</v>
+        <v>0.53957200000000005</v>
       </c>
       <c r="C36">
-        <v>-0.78739199999999998</v>
+        <v>-0.87583100000000003</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -4577,10 +4565,10 @@
         <v>9.0909099999999992</v>
       </c>
       <c r="B37">
-        <v>0.32519700000000001</v>
+        <v>0.33755099999999999</v>
       </c>
       <c r="C37">
-        <v>-0.90457900000000002</v>
+        <v>-0.91053499999999998</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -4588,10 +4576,10 @@
         <v>9.3434299999999997</v>
       </c>
       <c r="B38">
-        <v>8.3747299999999997E-2</v>
+        <v>9.2428200000000002E-2</v>
       </c>
       <c r="C38">
-        <v>-0.88638300000000003</v>
+        <v>-0.90263099999999996</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -4599,10 +4587,10 @@
         <v>9.5959599999999998</v>
       </c>
       <c r="B39">
-        <v>-0.15770200000000001</v>
+        <v>-0.17515800000000001</v>
       </c>
       <c r="C39">
-        <v>-0.86818600000000001</v>
+        <v>-0.88553700000000002</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -4610,10 +4598,10 @@
         <v>9.8484800000000003</v>
       </c>
       <c r="B40">
-        <v>-0.39915099999999998</v>
+        <v>-0.42274099999999998</v>
       </c>
       <c r="C40">
-        <v>-0.84999000000000002</v>
+        <v>-0.85925300000000004</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -4621,10 +4609,10 @@
         <v>10.101000000000001</v>
       </c>
       <c r="B41">
-        <v>-0.59007900000000002</v>
+        <v>-0.61467700000000003</v>
       </c>
       <c r="C41">
-        <v>-0.75387000000000004</v>
+        <v>-0.81094500000000003</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -4632,10 +4620,10 @@
         <v>10.3535</v>
       </c>
       <c r="B42">
-        <v>-0.70522200000000002</v>
+        <v>-0.77901399999999998</v>
       </c>
       <c r="C42">
-        <v>-0.54086500000000004</v>
+        <v>-0.64403299999999997</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -4643,10 +4631,10 @@
         <v>10.6061</v>
       </c>
       <c r="B43">
-        <v>-0.82036600000000004</v>
+        <v>-0.90986500000000003</v>
       </c>
       <c r="C43">
-        <v>-0.32786100000000001</v>
+        <v>-0.39334599999999997</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -4654,10 +4642,10 @@
         <v>10.858599999999999</v>
       </c>
       <c r="B44">
-        <v>-0.93550999999999995</v>
+        <v>-0.98733700000000002</v>
       </c>
       <c r="C44">
-        <v>-0.114857</v>
+        <v>-0.12665299999999999</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -4665,10 +4653,10 @@
         <v>11.1111</v>
       </c>
       <c r="B45">
-        <v>-0.94849899999999998</v>
+        <v>-0.99189000000000005</v>
       </c>
       <c r="C45">
-        <v>9.7695500000000005E-2</v>
+        <v>0.10569000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -4676,10 +4664,10 @@
         <v>11.3636</v>
       </c>
       <c r="B46">
-        <v>-0.83147499999999996</v>
+        <v>-0.92047199999999996</v>
       </c>
       <c r="C46">
-        <v>0.309672</v>
+        <v>0.36990499999999998</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -4687,10 +4675,10 @@
         <v>11.616199999999999</v>
       </c>
       <c r="B47">
-        <v>-0.71445000000000003</v>
+        <v>-0.79246399999999995</v>
       </c>
       <c r="C47">
-        <v>0.52164900000000003</v>
+        <v>0.62562600000000002</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -4698,10 +4686,10 @@
         <v>11.8687</v>
       </c>
       <c r="B48">
-        <v>-0.59742600000000001</v>
+        <v>-0.62880899999999995</v>
       </c>
       <c r="C48">
-        <v>0.733626</v>
+        <v>0.80423299999999998</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -4709,10 +4697,10 @@
         <v>12.1212</v>
       </c>
       <c r="B49">
-        <v>-0.42060399999999998</v>
+        <v>-0.44119999999999998</v>
       </c>
       <c r="C49">
-        <v>0.85156200000000004</v>
+        <v>0.85833599999999999</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -4720,10 +4708,10 @@
         <v>12.373699999999999</v>
       </c>
       <c r="B50">
-        <v>-0.179003</v>
+        <v>-0.19826299999999999</v>
       </c>
       <c r="C50">
-        <v>0.86762099999999998</v>
+        <v>0.88250499999999998</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -4731,10 +4719,10 @@
         <v>12.626300000000001</v>
       </c>
       <c r="B51">
-        <v>6.2597600000000003E-2</v>
+        <v>6.93328E-2</v>
       </c>
       <c r="C51">
-        <v>0.88368000000000002</v>
+        <v>0.89856400000000003</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -4742,10 +4730,10 @@
         <v>12.8788</v>
       </c>
       <c r="B52">
-        <v>0.304199</v>
+        <v>0.31909399999999999</v>
       </c>
       <c r="C52">
-        <v>0.89973899999999996</v>
+        <v>0.90651199999999998</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -4753,10 +4741,10 @@
         <v>13.1313</v>
       </c>
       <c r="B53">
-        <v>0.49507299999999999</v>
+        <v>0.52275700000000003</v>
       </c>
       <c r="C53">
-        <v>0.80624200000000001</v>
+        <v>0.88355399999999995</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -4764,10 +4752,10 @@
         <v>13.383800000000001</v>
       </c>
       <c r="B54">
-        <v>0.63912400000000003</v>
+        <v>0.71905600000000003</v>
       </c>
       <c r="C54">
-        <v>0.61161900000000002</v>
+        <v>0.72963800000000001</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -4775,10 +4763,10 @@
         <v>13.6364</v>
       </c>
       <c r="B55">
-        <v>0.78317499999999995</v>
+        <v>0.88342900000000002</v>
       </c>
       <c r="C55">
-        <v>0.416995</v>
+        <v>0.49110500000000001</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -4786,10 +4774,10 @@
         <v>13.8889</v>
       </c>
       <c r="B56">
-        <v>0.92722499999999997</v>
+        <v>0.97942499999999999</v>
       </c>
       <c r="C56">
-        <v>0.22237199999999999</v>
+        <v>0.236348</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -4797,10 +4785,10 @@
         <v>14.141400000000001</v>
       </c>
       <c r="B57">
-        <v>0.94248100000000001</v>
+        <v>0.98309100000000005</v>
       </c>
       <c r="C57">
-        <v>9.9700299999999995E-3</v>
+        <v>7.9294599999999993E-3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -4808,10 +4796,10 @@
         <v>14.3939</v>
       </c>
       <c r="B58">
-        <v>0.85654200000000003</v>
+        <v>0.93390099999999998</v>
       </c>
       <c r="C58">
-        <v>-0.21640000000000001</v>
+        <v>-0.25437700000000002</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -4819,10 +4807,10 @@
         <v>14.6465</v>
       </c>
       <c r="B59">
-        <v>0.77060300000000004</v>
+        <v>0.84226800000000002</v>
       </c>
       <c r="C59">
-        <v>-0.44277</v>
+        <v>-0.51163599999999998</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -4830,10 +4818,10 @@
         <v>14.898999999999999</v>
       </c>
       <c r="B60">
-        <v>0.68466400000000005</v>
+        <v>0.71218899999999996</v>
       </c>
       <c r="C60">
-        <v>-0.66913999999999996</v>
+        <v>-0.70942000000000005</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -4841,10 +4829,10 @@
         <v>15.1515</v>
       </c>
       <c r="B61">
-        <v>0.50813799999999998</v>
+        <v>0.53816799999999998</v>
       </c>
       <c r="C61">
-        <v>-0.78968400000000005</v>
+        <v>-0.81513400000000003</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -4852,10 +4840,10 @@
         <v>15.404</v>
       </c>
       <c r="B62">
-        <v>0.27122099999999999</v>
+        <v>0.30124299999999998</v>
       </c>
       <c r="C62">
-        <v>-0.83967599999999998</v>
+        <v>-0.88734599999999997</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -4863,10 +4851,10 @@
         <v>15.656599999999999</v>
       </c>
       <c r="B63">
-        <v>3.4303699999999999E-2</v>
+        <v>3.7859499999999997E-2</v>
       </c>
       <c r="C63">
-        <v>-0.88966900000000004</v>
+        <v>-0.93430899999999995</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -4874,10 +4862,10 @@
         <v>15.9091</v>
       </c>
       <c r="B64">
-        <v>-0.20261299999999999</v>
+        <v>-0.210311</v>
       </c>
       <c r="C64">
-        <v>-0.939662</v>
+        <v>-0.95602299999999996</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -4885,10 +4873,10 @@
         <v>16.1616</v>
       </c>
       <c r="B65">
-        <v>-0.39675100000000002</v>
+        <v>-0.42653400000000002</v>
       </c>
       <c r="C65">
-        <v>-0.84735700000000003</v>
+        <v>-0.92765699999999995</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -4896,10 +4884,10 @@
         <v>16.414100000000001</v>
       </c>
       <c r="B66">
-        <v>-0.56682500000000002</v>
+        <v>-0.653312</v>
       </c>
       <c r="C66">
-        <v>-0.67501</v>
+        <v>-0.78473400000000004</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -4907,10 +4895,10 @@
         <v>16.666699999999999</v>
       </c>
       <c r="B67">
-        <v>-0.73689899999999997</v>
+        <v>-0.84648000000000001</v>
       </c>
       <c r="C67">
-        <v>-0.50266200000000005</v>
+        <v>-0.57195700000000005</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -4918,10 +4906,10 @@
         <v>16.9192</v>
       </c>
       <c r="B68">
-        <v>-0.90697399999999995</v>
+        <v>-0.95375200000000004</v>
       </c>
       <c r="C68">
-        <v>-0.33031500000000003</v>
+        <v>-0.34304699999999999</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -4929,10 +4917,10 @@
         <v>17.171700000000001</v>
       </c>
       <c r="B69">
-        <v>-0.92526600000000003</v>
+        <v>-0.95519299999999996</v>
       </c>
       <c r="C69">
-        <v>-0.114525</v>
+        <v>-0.122013</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -4940,10 +4928,10 @@
         <v>17.424199999999999</v>
       </c>
       <c r="B70">
-        <v>-0.87213300000000005</v>
+        <v>-0.92352800000000002</v>
       </c>
       <c r="C70">
-        <v>0.121707</v>
+        <v>0.13537299999999999</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -4951,10 +4939,10 @@
         <v>17.6768</v>
       </c>
       <c r="B71">
-        <v>-0.81899900000000003</v>
+        <v>-0.86502699999999999</v>
       </c>
       <c r="C71">
-        <v>0.35793900000000001</v>
+        <v>0.39393400000000001</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -4962,10 +4950,10 @@
         <v>17.929300000000001</v>
       </c>
       <c r="B72">
-        <v>-0.76586500000000002</v>
+        <v>-0.77968999999999999</v>
       </c>
       <c r="C72">
-        <v>0.59417200000000003</v>
+        <v>0.61211899999999997</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -4973,10 +4961,10 @@
         <v>18.181799999999999</v>
       </c>
       <c r="B73">
-        <v>-0.58719399999999999</v>
+        <v>-0.64375800000000005</v>
       </c>
       <c r="C73">
-        <v>0.720024</v>
+        <v>0.76585099999999995</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -4984,10 +4972,10 @@
         <v>18.4343</v>
       </c>
       <c r="B74">
-        <v>-0.35970299999999999</v>
+        <v>-0.41906500000000002</v>
       </c>
       <c r="C74">
-        <v>0.80295000000000005</v>
+        <v>0.88017900000000004</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -4995,10 +4983,10 @@
         <v>18.686900000000001</v>
       </c>
       <c r="B75">
-        <v>-0.132212</v>
+        <v>-0.154363</v>
       </c>
       <c r="C75">
-        <v>0.885876</v>
+        <v>0.95483300000000004</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -5006,10 +4994,10 @@
         <v>18.939399999999999</v>
       </c>
       <c r="B76">
-        <v>9.52794E-2</v>
+        <v>9.73078E-2</v>
       </c>
       <c r="C76">
-        <v>0.96880200000000005</v>
+        <v>0.98741299999999999</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -5017,10 +5005,10 @@
         <v>19.1919</v>
       </c>
       <c r="B77">
-        <v>0.29632500000000001</v>
+        <v>0.32767099999999999</v>
       </c>
       <c r="C77">
-        <v>0.87727200000000005</v>
+        <v>0.95562000000000002</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -5028,10 +5016,10 @@
         <v>19.444400000000002</v>
       </c>
       <c r="B78">
-        <v>0.48901899999999998</v>
+        <v>0.58220799999999995</v>
       </c>
       <c r="C78">
-        <v>0.73065000000000002</v>
+        <v>0.83088300000000004</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -5039,10 +5027,10 @@
         <v>19.696999999999999</v>
       </c>
       <c r="B79">
-        <v>0.68171300000000001</v>
+        <v>0.79844700000000002</v>
       </c>
       <c r="C79">
-        <v>0.58402799999999999</v>
+        <v>0.64880300000000002</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -5050,10 +5038,10 @@
         <v>19.9495</v>
       </c>
       <c r="B80">
-        <v>0.87440600000000002</v>
+        <v>0.90931799999999996</v>
       </c>
       <c r="C80">
-        <v>0.43740600000000002</v>
+        <v>0.44735399999999997</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -5061,10 +5049,10 @@
         <v>20.202000000000002</v>
       </c>
       <c r="B81">
-        <v>0.89753300000000003</v>
+        <v>0.90983199999999997</v>
       </c>
       <c r="C81">
-        <v>0.21498900000000001</v>
+        <v>0.23092099999999999</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -5072,10 +5060,10 @@
         <v>20.454499999999999</v>
       </c>
       <c r="B82">
-        <v>0.87826800000000005</v>
+        <v>0.89718299999999995</v>
       </c>
       <c r="C82">
-        <v>-2.6377600000000001E-2</v>
+        <v>-2.9384E-2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -5083,10 +5071,10 @@
         <v>20.707100000000001</v>
       </c>
       <c r="B83">
-        <v>0.85900299999999996</v>
+        <v>0.87480400000000003</v>
       </c>
       <c r="C83">
-        <v>-0.26774399999999998</v>
+        <v>-0.29323700000000003</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -5094,10 +5082,10 @@
         <v>20.959599999999998</v>
       </c>
       <c r="B84">
-        <v>0.83973799999999998</v>
+        <v>0.842696</v>
       </c>
       <c r="C84">
-        <v>-0.50911099999999998</v>
+        <v>-0.51818500000000001</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -5105,10 +5093,10 @@
         <v>21.2121</v>
       </c>
       <c r="B85">
-        <v>0.65730599999999995</v>
+        <v>0.74840300000000004</v>
       </c>
       <c r="C85">
-        <v>-0.64365700000000003</v>
+        <v>-0.69284400000000002</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -5116,10 +5104,10 @@
         <v>21.464600000000001</v>
       </c>
       <c r="B86">
-        <v>0.44379400000000002</v>
+        <v>0.53559999999999997</v>
       </c>
       <c r="C86">
-        <v>-0.757857</v>
+        <v>-0.84365699999999999</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -5127,10 +5115,10 @@
         <v>21.717199999999998</v>
       </c>
       <c r="B87">
-        <v>0.23028199999999999</v>
+        <v>0.26944200000000001</v>
       </c>
       <c r="C87">
-        <v>-0.87205699999999997</v>
+        <v>-0.95228699999999999</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -5138,10 +5126,10 @@
         <v>21.9697</v>
       </c>
       <c r="B88">
-        <v>1.67701E-2</v>
+        <v>1.72712E-2</v>
       </c>
       <c r="C88">
-        <v>-0.98625700000000005</v>
+        <v>-0.99936700000000001</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -5149,10 +5137,10 @@
         <v>22.222200000000001</v>
       </c>
       <c r="B89">
-        <v>-0.194933</v>
+        <v>-0.223083</v>
       </c>
       <c r="C89">
-        <v>-0.89615500000000003</v>
+        <v>-0.96835899999999997</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -5160,10 +5148,10 @@
         <v>22.474699999999999</v>
       </c>
       <c r="B90">
-        <v>-0.40638999999999997</v>
+        <v>-0.49199999999999999</v>
       </c>
       <c r="C90">
-        <v>-0.77819300000000002</v>
+        <v>-0.86837399999999998</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -5171,10 +5159,10 @@
         <v>22.7273</v>
       </c>
       <c r="B91">
-        <v>-0.61784700000000004</v>
+        <v>-0.72173500000000002</v>
       </c>
       <c r="C91">
-        <v>-0.66023200000000004</v>
+        <v>-0.72083399999999997</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -5182,10 +5170,10 @@
         <v>22.979800000000001</v>
       </c>
       <c r="B92">
-        <v>-0.82930400000000004</v>
+        <v>-0.84324299999999996</v>
       </c>
       <c r="C92">
-        <v>-0.54227000000000003</v>
+        <v>-0.547207</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -5193,10 +5181,10 @@
         <v>23.232299999999999</v>
       </c>
       <c r="B93">
-        <v>-0.86001099999999997</v>
+        <v>-0.87059699999999995</v>
       </c>
       <c r="C93">
-        <v>-0.31049700000000002</v>
+        <v>-0.33595399999999997</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -5204,10 +5192,10 @@
         <v>23.4848</v>
       </c>
       <c r="B94">
-        <v>-0.875</v>
+        <v>-0.88982600000000001</v>
       </c>
       <c r="C94">
-        <v>-6.8827200000000005E-2</v>
+        <v>-7.6729900000000004E-2</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -5215,10 +5203,10 @@
         <v>23.737400000000001</v>
       </c>
       <c r="B95">
-        <v>-0.88998900000000003</v>
+        <v>-0.90148399999999995</v>
       </c>
       <c r="C95">
-        <v>0.172843</v>
+        <v>0.18822900000000001</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -5226,10 +5214,10 @@
         <v>23.989899999999999</v>
       </c>
       <c r="B96">
-        <v>-0.90497899999999998</v>
+        <v>-0.90557200000000004</v>
       </c>
       <c r="C96">
-        <v>0.41451199999999999</v>
+        <v>0.41641800000000001</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -5237,10 +5225,10 @@
         <v>24.2424</v>
       </c>
       <c r="B97">
-        <v>-0.71812900000000002</v>
+        <v>-0.84424500000000002</v>
       </c>
       <c r="C97">
-        <v>0.561639</v>
+        <v>0.59745099999999995</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -5248,10 +5236,10 @@
         <v>24.494900000000001</v>
       </c>
       <c r="B98">
-        <v>-0.52286999999999995</v>
+        <v>-0.67199600000000004</v>
       </c>
       <c r="C98">
-        <v>0.70482699999999998</v>
+        <v>0.75357099999999999</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -5259,10 +5247,10 @@
         <v>24.747499999999999</v>
       </c>
       <c r="B99">
-        <v>-0.32761099999999999</v>
+        <v>-0.42320200000000002</v>
       </c>
       <c r="C99">
-        <v>0.84801499999999996</v>
+        <v>0.88482099999999997</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
